--- a/ds/2des/03-bcd/aula07/normalizacao_concatenacao.xlsx
+++ b/ds/2des/03-bcd/aula07/normalizacao_concatenacao.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\03-bcd\aula07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A23D4C31-5EF9-4978-A107-3A7856A6E1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482A5DFC-653D-4158-8402-8560B94EAC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="manutencoes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>placa</t>
   </si>
@@ -188,12 +201,102 @@
   </si>
   <si>
     <t>insert into manutencao(id,inicio,fim,descricao,matricula,placa)values</t>
+  </si>
+  <si>
+    <t>insert into funcionario(matricula, nome) values</t>
+  </si>
+  <si>
+    <t>insert into telefone(matricula, numero) values</t>
+  </si>
+  <si>
+    <t>insert into veiculo(placa, modelo, marca, ano)values</t>
+  </si>
+  <si>
+    <t>2023-02-25</t>
+  </si>
+  <si>
+    <t>2023-03-13</t>
+  </si>
+  <si>
+    <t>2023-03-29</t>
+  </si>
+  <si>
+    <t>2023-04-14</t>
+  </si>
+  <si>
+    <t>2023-04-30</t>
+  </si>
+  <si>
+    <t>2023-05-16</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>2023-06-25</t>
+  </si>
+  <si>
+    <t>2023-07-15</t>
+  </si>
+  <si>
+    <t>2023-08-04</t>
+  </si>
+  <si>
+    <t>2023-08-24</t>
+  </si>
+  <si>
+    <t>2023-08-27</t>
+  </si>
+  <si>
+    <t>2023-08-30</t>
+  </si>
+  <si>
+    <t>2023-09-02</t>
+  </si>
+  <si>
+    <t>2023-03-04</t>
+  </si>
+  <si>
+    <t>2023-03-21</t>
+  </si>
+  <si>
+    <t>2023-04-05</t>
+  </si>
+  <si>
+    <t>2023-04-24</t>
+  </si>
+  <si>
+    <t>2023-05-07</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>2023-06-10</t>
+  </si>
+  <si>
+    <t>2023-07-02</t>
+  </si>
+  <si>
+    <t>2023-07-19</t>
+  </si>
+  <si>
+    <t>2023-08-10</t>
+  </si>
+  <si>
+    <t>2023-08-31</t>
+  </si>
+  <si>
+    <t>2023-09-04</t>
+  </si>
+  <si>
+    <t>2023-09-07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -673,7 +776,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1048,11 +1151,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,20 +1164,20 @@
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="76.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1096,16 +1199,19 @@
       <c r="G2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>44982</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44989</v>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1117,19 +1223,28 @@
         <v>11</v>
       </c>
       <c r="G3" t="str">
-        <f>"("&amp;A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;",'"&amp;F3&amp;"',),"</f>
-        <v>(1,'44982','44989','Lanterna queimada',48482,'DEA-7981',),</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f>"("&amp;A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;",'"&amp;F3&amp;"'),"</f>
+        <v>(1,'2023-02-25','2023-03-04','Lanterna queimada',48482,'DEA-7981'),</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>44998</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45006</v>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1141,19 +1256,29 @@
         <v>16</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G16" si="0">"("&amp;A4&amp;",'"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"',"&amp;E4&amp;",'"&amp;F4&amp;"',),"</f>
-        <v>(2,'44998','45006','Farol queimado',48542,'CBC-4945',),</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G4:G16" si="0">"("&amp;A4&amp;",'"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"',"&amp;E4&amp;",'"&amp;F4&amp;"'),"</f>
+        <v>(2,'2023-03-13','2023-03-21','Farol queimado',48542,'CBC-4945'),</v>
+      </c>
+      <c r="H4">
+        <v>48482</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"("&amp;H4&amp;",'"&amp;I4&amp;"'),"</f>
+        <v>(48482,'19-72077-0521'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>45014</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45021</v>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1166,18 +1291,28 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>(3,'45014','45021','Troca de pneus dianteiros',48522,'BEE-7735',),</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>(3,'2023-03-29','2023-04-05','Troca de pneus dianteiros',48522,'BEE-7735'),</v>
+      </c>
+      <c r="H5">
+        <v>48482</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J10" si="1">"("&amp;H5&amp;",'"&amp;I5&amp;"'),"</f>
+        <v>(48482,'19-06078-6843'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>45030</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45040</v>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -1190,18 +1325,28 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>(4,'45030','45040','Troca de pneus dianteiros',48502,'CBA-4403',),</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>(4,'2023-04-14','2023-04-24','Troca de pneus dianteiros',48502,'CBA-4403'),</v>
+      </c>
+      <c r="H6">
+        <v>48542</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>(48542,'19-23003-4864'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>45046</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45053</v>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1214,18 +1359,28 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>(5,'45046','45053','Farol queimado',48502,'BBC-8504',),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>(5,'2023-04-30','2023-05-07','Farol queimado',48502,'BBC-8504'),</v>
+      </c>
+      <c r="H7">
+        <v>48522</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>(48522,'19-06486-6449'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>45062</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45071</v>
+      <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
@@ -1238,18 +1393,28 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>(6,'45062','45071','Troca de pneus trazeiros',48482,'BEB-5885',),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>(6,'2023-05-16','2023-05-25','Troca de pneus trazeiros',48482,'BEB-5885'),</v>
+      </c>
+      <c r="H8">
+        <v>48522</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>(48522,'19-53266-7923'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>45082</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45087</v>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
@@ -1262,18 +1427,28 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>(7,'45082','45087','Retrovizor quebrado',48482,'EDB-2475',),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>(7,'2023-06-05','2023-06-10','Retrovizor quebrado',48482,'EDB-2475'),</v>
+      </c>
+      <c r="H9">
+        <v>48502</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>(48502,'19-64378-2404'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>45102</v>
-      </c>
-      <c r="C10" s="1">
-        <v>45109</v>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
@@ -1286,18 +1461,28 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>(8,'45102','45109','Troca de óleo e revisão geral',48502,'CBC-4945',),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>(8,'2023-06-25','2023-07-02','Troca de óleo e revisão geral',48502,'CBC-4945'),</v>
+      </c>
+      <c r="H10">
+        <v>48562</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>(48562,'19-53315-2734'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>45122</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45126</v>
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
@@ -1310,18 +1495,18 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>(9,'45122','45126','Troca de Flúido de Freio',48482,'EDB-2475',),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>(9,'2023-07-15','2023-07-19','Troca de Flúido de Freio',48482,'EDB-2475'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>45142</v>
-      </c>
-      <c r="C12" s="1">
-        <v>45148</v>
+      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D12" t="s">
         <v>42</v>
@@ -1334,18 +1519,18 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>(10,'45142','45148','Problemas no cabo do acelerador',48502,'DEA-7981',),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>(10,'2023-08-04','2023-08-10','Problemas no cabo do acelerador',48502,'DEA-7981'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>45162</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45169</v>
+      <c r="B13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
@@ -1358,18 +1543,21 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>(11,'45162','45169','Pane elétrica',48562,'CBA-4403',),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>(11,'2023-08-24','2023-08-31','Pane elétrica',48562,'CBA-4403'),</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>45165</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45173</v>
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -1382,18 +1570,27 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>(12,'45165','45173','Rebimboca da parafuzeta',48522,'BBC-8504',),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>(12,'2023-08-27','2023-09-04','Rebimboca da parafuzeta',48522,'BBC-8504'),</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>45168</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45173</v>
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="D15" t="s">
         <v>47</v>
@@ -1406,18 +1603,28 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>(13,'45168','45173','Troca de cavalos por poneis',48542,'BEE-7735',),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>(13,'2023-08-30','2023-09-04','Troca de cavalos por poneis',48542,'BEE-7735'),</v>
+      </c>
+      <c r="H15">
+        <v>48482</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="str">
+        <f>"("&amp;H15&amp;",'"&amp;I15&amp;"'),"</f>
+        <v>(48482,'Osvaldo Oliveira'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>45171</v>
-      </c>
-      <c r="C16" s="1">
-        <v>45176</v>
+      <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1430,19 +1637,59 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>(14,'45171','45176','Lanterna queimada',48482,'BEB-5885',),</v>
+        <v>(14,'2023-09-02','2023-09-07','Lanterna queimada',48482,'BEB-5885'),</v>
+      </c>
+      <c r="H16">
+        <v>48542</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ref="J16:J19" si="2">"("&amp;H16&amp;",'"&amp;I16&amp;"'),"</f>
+        <v>(48542,'Jaqueline Teixeira'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>48522</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="2"/>
+        <v>(48522,'Keli Matos'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>48502</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="2"/>
+        <v>(48502,'Ursula Souza'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>48562</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="2"/>
+        <v>(48562,'Evandro Silva'),</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
-      <c r="F20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1457,17 +1704,8 @@
       <c r="D21" t="s">
         <v>3</v>
       </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" t="s">
-        <v>10</v>
+      <c r="E21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1483,17 +1721,9 @@
       <c r="D22">
         <v>2005</v>
       </c>
-      <c r="F22">
-        <v>48482</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22">
-        <v>48482</v>
-      </c>
-      <c r="J22" t="s">
-        <v>48</v>
+      <c r="E22" t="str">
+        <f>"('"&amp;A22&amp;"','"&amp;B22&amp;"','"&amp;C22&amp;"',"&amp;D22&amp;"),"</f>
+        <v>('DEA-7981','Uno','Fiat',2005),</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1509,17 +1739,9 @@
       <c r="D23">
         <v>2007</v>
       </c>
-      <c r="F23">
-        <v>48542</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23">
-        <v>48482</v>
-      </c>
-      <c r="J23" t="s">
-        <v>49</v>
+      <c r="E23" t="str">
+        <f t="shared" ref="E23:E28" si="3">"('"&amp;A23&amp;"','"&amp;B23&amp;"','"&amp;C23&amp;"',"&amp;D23&amp;"),"</f>
+        <v>('CBC-4945','Fiorino','Fiat',2007),</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1535,17 +1757,9 @@
       <c r="D24">
         <v>2015</v>
       </c>
-      <c r="F24">
-        <v>48522</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24">
-        <v>48542</v>
-      </c>
-      <c r="J24" t="s">
-        <v>20</v>
+      <c r="E24" t="str">
+        <f t="shared" si="3"/>
+        <v>('BEE-7735','Saveiro','VW',2015),</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1561,17 +1775,9 @@
       <c r="D25">
         <v>2012</v>
       </c>
-      <c r="F25">
-        <v>48502</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25">
-        <v>48522</v>
-      </c>
-      <c r="J25" t="s">
-        <v>50</v>
+      <c r="E25" t="str">
+        <f t="shared" si="3"/>
+        <v>('CBA-4403','Sandeiro','Renaut',2012),</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1587,17 +1793,9 @@
       <c r="D26">
         <v>2004</v>
       </c>
-      <c r="F26">
-        <v>48562</v>
-      </c>
-      <c r="G26" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26">
-        <v>48522</v>
-      </c>
-      <c r="J26" t="s">
-        <v>51</v>
+      <c r="E26" t="str">
+        <f t="shared" si="3"/>
+        <v>('BBC-8504','Palio','Fiat',2004),</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1613,11 +1811,9 @@
       <c r="D27">
         <v>2013</v>
       </c>
-      <c r="I27">
-        <v>48502</v>
-      </c>
-      <c r="J27" t="s">
-        <v>30</v>
+      <c r="E27" t="str">
+        <f t="shared" si="3"/>
+        <v>('BEB-5885','Gol','VW',2013),</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1633,14 +1829,13 @@
       <c r="D28">
         <v>2005</v>
       </c>
-      <c r="I28">
-        <v>48562</v>
-      </c>
-      <c r="J28" t="s">
-        <v>45</v>
+      <c r="E28" t="str">
+        <f t="shared" si="3"/>
+        <v>('EDB-2475','Ranger','Ford',2005),</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>